--- a/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.95</v>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1257,13 +1300,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.95</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1444,13 +1509,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.7</v>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.95</v>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1323,7 +1434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +1604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +1926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688155-先惠技术.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016250</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -960,7 +1147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1604,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
